--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,136 +52,151 @@
     <t>loves</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>awesome</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>husband</t>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>bread</t>
   </si>
   <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
     <t>cake</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
     <t>wife</t>
   </si>
   <si>
-    <t>bread</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>cooking</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>works</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>pan</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>pan</t>
+    <t>every</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>clean</t>
+    <t>coffee</t>
   </si>
   <si>
     <t>bought</t>
@@ -190,25 +205,25 @@
     <t>makes</t>
   </si>
   <si>
-    <t>coffee</t>
+    <t>hot</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>make</t>
+    <t>really</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>really</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>one</t>
   </si>
   <si>
     <t>use</t>
@@ -572,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -641,13 +656,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3798449612403101</v>
+        <v>0.3875968992248062</v>
       </c>
       <c r="C3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -659,19 +674,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -683,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -715,13 +730,13 @@
         <v>12</v>
       </c>
       <c r="K4">
-        <v>0.8984375</v>
+        <v>0.8606811145510835</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>556</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>556</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -733,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -741,13 +756,13 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>0.8840579710144928</v>
+        <v>0.859375</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -759,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -767,13 +782,13 @@
         <v>14</v>
       </c>
       <c r="K6">
-        <v>0.8792569659442725</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="L6">
-        <v>568</v>
+        <v>58</v>
       </c>
       <c r="M6">
-        <v>568</v>
+        <v>58</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -785,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>78</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -793,13 +808,13 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <v>0.7359307359307359</v>
+        <v>0.75</v>
       </c>
       <c r="L7">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -811,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -819,13 +834,13 @@
         <v>16</v>
       </c>
       <c r="K8">
-        <v>0.71875</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L8">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -837,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -845,13 +860,13 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>0.7173913043478261</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -863,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -871,13 +886,13 @@
         <v>18</v>
       </c>
       <c r="K10">
-        <v>0.7084745762711865</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="L10">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M10">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -889,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -897,13 +912,13 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <v>0.6888888888888889</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -915,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -923,13 +938,13 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.6623376623376623</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="L12">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M12">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -941,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -949,13 +964,13 @@
         <v>21</v>
       </c>
       <c r="K13">
-        <v>0.6575342465753424</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M13">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -967,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -975,13 +990,13 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.647887323943662</v>
+        <v>0.6524879614767255</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>813</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>813</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -993,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1001,13 +1016,13 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6468699839486356</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L15">
-        <v>806</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>806</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1019,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>440</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1053,13 +1068,13 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6153846153846154</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L17">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1071,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1079,13 +1094,13 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.6114285714285714</v>
+        <v>0.5828571428571429</v>
       </c>
       <c r="L18">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M18">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1097,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1105,13 +1120,13 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.543859649122807</v>
+        <v>0.5783132530120482</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1123,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1131,13 +1146,13 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.5329341317365269</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L20">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="M20">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1149,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>78</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1157,13 +1172,13 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5301204819277109</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L21">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M21">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1175,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1183,13 +1198,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5288461538461539</v>
+        <v>0.515625</v>
       </c>
       <c r="L22">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1201,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1209,25 +1224,25 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5285714285714286</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="L23">
+        <v>39</v>
+      </c>
+      <c r="M23">
+        <v>39</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>37</v>
-      </c>
-      <c r="M23">
-        <v>37</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>33</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1235,13 +1250,13 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.5131578947368421</v>
+        <v>0.51</v>
       </c>
       <c r="L24">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="M24">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1253,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1261,13 +1276,13 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.5128205128205128</v>
+        <v>0.4970059880239521</v>
       </c>
       <c r="L25">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="M25">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1279,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1287,13 +1302,13 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.4861111111111111</v>
+        <v>0.4903846153846154</v>
       </c>
       <c r="L26">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="M26">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1305,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1313,13 +1328,13 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.42</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="L27">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1331,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1339,13 +1354,13 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.4197530864197531</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L28">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1357,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1365,13 +1380,13 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.4156626506024096</v>
+        <v>0.4511278195488722</v>
       </c>
       <c r="L29">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="M29">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1383,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>97</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1391,13 +1406,13 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.3970588235294117</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="L30">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="M30">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1409,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>246</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1417,13 +1432,13 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.3834586466165413</v>
+        <v>0.4046692607003891</v>
       </c>
       <c r="L31">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="M31">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1435,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>82</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1443,13 +1458,13 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.3813229571984436</v>
+        <v>0.3946078431372549</v>
       </c>
       <c r="L32">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="M32">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1461,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>159</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1469,13 +1484,13 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.3794520547945205</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="L33">
-        <v>277</v>
+        <v>42</v>
       </c>
       <c r="M33">
-        <v>277</v>
+        <v>42</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1487,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>453</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1495,13 +1510,13 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.3458646616541353</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="L34">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M34">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1513,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>87</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1521,13 +1536,13 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.304635761589404</v>
+        <v>0.3589041095890411</v>
       </c>
       <c r="L35">
-        <v>46</v>
+        <v>262</v>
       </c>
       <c r="M35">
-        <v>46</v>
+        <v>262</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1539,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>105</v>
+        <v>468</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1547,13 +1562,13 @@
         <v>44</v>
       </c>
       <c r="K36">
-        <v>0.3014354066985646</v>
+        <v>0.3458646616541353</v>
       </c>
       <c r="L36">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="M36">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1565,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>146</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1573,13 +1588,13 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.2882882882882883</v>
+        <v>0.3253588516746411</v>
       </c>
       <c r="L37">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="M37">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1591,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>79</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1599,13 +1614,13 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>0.2871287128712871</v>
+        <v>0.3240740740740741</v>
       </c>
       <c r="L38">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M38">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1617,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1625,13 +1640,13 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.2805755395683453</v>
+        <v>0.3237410071942446</v>
       </c>
       <c r="L39">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M39">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1643,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1677,13 +1692,13 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.2442455242966752</v>
+        <v>0.2649006622516556</v>
       </c>
       <c r="L41">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="M41">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1695,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>591</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1703,13 +1718,13 @@
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.2281879194630873</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L42">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M42">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1721,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>115</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1729,13 +1744,13 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.2185430463576159</v>
+        <v>0.233112582781457</v>
       </c>
       <c r="L43">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="M43">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1747,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>590</v>
+        <v>579</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1755,13 +1770,13 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.213166144200627</v>
+        <v>0.2276214833759591</v>
       </c>
       <c r="L44">
-        <v>68</v>
+        <v>178</v>
       </c>
       <c r="M44">
-        <v>68</v>
+        <v>178</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1773,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>251</v>
+        <v>604</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1781,25 +1796,25 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.1972972972972973</v>
+        <v>0.1974921630094044</v>
       </c>
       <c r="L45">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="M45">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="N45">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>297</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1807,13 +1822,13 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.1837708830548926</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="L46">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="M46">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1825,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>342</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1833,13 +1848,13 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.1754385964912281</v>
+        <v>0.1890243902439024</v>
       </c>
       <c r="L47">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="M47">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1851,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>376</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1859,25 +1874,25 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.1678832116788321</v>
+        <v>0.1842818428184282</v>
       </c>
       <c r="L48">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M48">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>342</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1885,13 +1900,13 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.1586715867158671</v>
+        <v>0.1644736842105263</v>
       </c>
       <c r="L49">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="M49">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1903,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>228</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1911,13 +1926,13 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.1409090909090909</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="L50">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="M50">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1929,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>378</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1937,13 +1952,13 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.140893470790378</v>
+        <v>0.1527446300715991</v>
       </c>
       <c r="L51">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="M51">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1955,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>250</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1963,25 +1978,25 @@
         <v>60</v>
       </c>
       <c r="K52">
-        <v>0.1338289962825279</v>
+        <v>0.15</v>
       </c>
       <c r="L52">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="M52">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="N52">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>233</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -1989,25 +2004,25 @@
         <v>61</v>
       </c>
       <c r="K53">
-        <v>0.09928057553956834</v>
+        <v>0.1313868613138686</v>
       </c>
       <c r="L53">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M53">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="N53">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>626</v>
+        <v>357</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2015,13 +2030,13 @@
         <v>62</v>
       </c>
       <c r="K54">
-        <v>0.09836065573770492</v>
+        <v>0.1291512915129151</v>
       </c>
       <c r="L54">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M54">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2033,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>330</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2041,25 +2056,25 @@
         <v>63</v>
       </c>
       <c r="K55">
-        <v>0.08133086876155268</v>
+        <v>0.1218487394957983</v>
       </c>
       <c r="L55">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="M55">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N55">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>497</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2067,25 +2082,25 @@
         <v>64</v>
       </c>
       <c r="K56">
-        <v>0.07663551401869159</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="L56">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="M56">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="N56">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O56">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>988</v>
+        <v>255</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2093,25 +2108,155 @@
         <v>65</v>
       </c>
       <c r="K57">
-        <v>0.06239168110918544</v>
+        <v>0.09289617486338798</v>
       </c>
       <c r="L57">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="M57">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="N57">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>1082</v>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K58">
+        <v>0.08620689655172414</v>
+      </c>
+      <c r="L58">
+        <v>60</v>
+      </c>
+      <c r="M58">
+        <v>62</v>
+      </c>
+      <c r="N58">
+        <v>0.97</v>
+      </c>
+      <c r="O58">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K59">
+        <v>0.08029878618113913</v>
+      </c>
+      <c r="L59">
+        <v>86</v>
+      </c>
+      <c r="M59">
+        <v>87</v>
+      </c>
+      <c r="N59">
+        <v>0.99</v>
+      </c>
+      <c r="O59">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K60">
+        <v>0.05758157389635317</v>
+      </c>
+      <c r="L60">
+        <v>30</v>
+      </c>
+      <c r="M60">
+        <v>31</v>
+      </c>
+      <c r="N60">
+        <v>0.97</v>
+      </c>
+      <c r="O60">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K61">
+        <v>0.05350553505535055</v>
+      </c>
+      <c r="L61">
+        <v>29</v>
+      </c>
+      <c r="M61">
+        <v>29</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K62">
+        <v>0.04423243712055507</v>
+      </c>
+      <c r="L62">
+        <v>51</v>
+      </c>
+      <c r="M62">
+        <v>55</v>
+      </c>
+      <c r="N62">
+        <v>0.93</v>
+      </c>
+      <c r="O62">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>1102</v>
       </c>
     </row>
   </sheetData>
